--- a/biology/Médecine/Muscle_élévateur_du_voile_du_palais/Muscle_élévateur_du_voile_du_palais.xlsx
+++ b/biology/Médecine/Muscle_élévateur_du_voile_du_palais/Muscle_élévateur_du_voile_du_palais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_%C3%A9l%C3%A9vateur_du_voile_du_palais</t>
+          <t>Muscle_élévateur_du_voile_du_palais</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muscle élévateur du voile du palais (ou muscle péristaphylin interne ou muscle pétro-salpingo-staphylin ou muscle pétro-staphylin)[1] est un muscle du pharynx (= releveur du voile).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle élévateur du voile du palais (ou muscle péristaphylin interne ou muscle pétro-salpingo-staphylin ou muscle pétro-staphylin) est un muscle du pharynx (= releveur du voile).
 Il s'insère sur la face exocrânienne antérieur du rocher de l'os temporal et se dirige vers l'aponévrose palatine, ce qui lui permet d'attirer le palais mou en haut et en arrière.
 Il est innervé par le nerf vague (Xe paire des nerfs crâniens).
 </t>
